--- a/input/static_data/cost/season_16/player_cost_GW24.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW24.xlsx
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L10" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="11">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L26" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L31" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="32">
@@ -1319,37 +1319,37 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L33" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="34">
@@ -1433,37 +1433,37 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L36" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="37">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L45" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="46">
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L48" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="49">
@@ -2383,37 +2383,37 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L61" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="62">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L79" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L90" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="91">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L94" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L97" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="98">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L101" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="102">
@@ -4055,37 +4055,37 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L106" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="107">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L109" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="110">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L120" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="121">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L126" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="127">
@@ -4967,37 +4967,37 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L129" t="n">
-        <v>6100000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="130">
@@ -5005,37 +5005,37 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L130" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="131">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4000000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L138" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="139">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L162" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="163">
@@ -6259,37 +6259,37 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L163" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="164">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6400000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L167" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L168" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="169">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4700000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="182">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L206" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="207">
@@ -8121,37 +8121,37 @@
         <v>211.0</v>
       </c>
       <c r="B212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L212" t="n">
-        <v>4000000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="213">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L213" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="214">
@@ -8539,37 +8539,37 @@
         <v>222.0</v>
       </c>
       <c r="B223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L223" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="224">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L226" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="227">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L235" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="236">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L251" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="252">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10629,37 +10629,37 @@
         <v>277.0</v>
       </c>
       <c r="B278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L278" t="n">
-        <v>5700000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="279">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L280" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="C282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="D282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="E282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="F282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="G282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="H282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="I282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="J282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="K282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
       <c r="L282" t="n">
-        <v>9400000.0</v>
+        <v>9500000.0</v>
       </c>
     </row>
     <row r="283">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L309" t="n">
-        <v>4800000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="310">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L315" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="316">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>7100000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="337">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L338" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L341" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L348" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="349">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7800000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L382" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="383">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="C400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="D400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="E400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="F400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="H400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="I400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="J400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="K400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
       <c r="L400" t="n">
-        <v>9700000.0</v>
+        <v>9100000.0</v>
       </c>
     </row>
     <row r="401">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.04E7</v>
+        <v>1.06E7</v>
       </c>
     </row>
     <row r="408">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L414" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="415">
@@ -15987,37 +15987,37 @@
         <v>418.0</v>
       </c>
       <c r="B419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L419" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="420">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L425" t="n">
-        <v>4800000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8300000.0</v>
+        <v>8400000.0</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.15E7</v>
+        <v>1.18E7</v>
       </c>
     </row>
     <row r="430">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L456" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="457">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L461" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="462">
@@ -17697,37 +17697,37 @@
         <v>463.0</v>
       </c>
       <c r="B464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L464" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="465">
@@ -17925,37 +17925,37 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L470" t="n">
-        <v>4300000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="471">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8600000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="491">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L505" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="506">
@@ -19787,37 +19787,37 @@
         <v>518.0</v>
       </c>
       <c r="B519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L519" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="520">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L520" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="521">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5500000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="524">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L532" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="533">
@@ -20889,37 +20889,37 @@
         <v>547.0</v>
       </c>
       <c r="B548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L548" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="549">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L550" t="n">
-        <v>5700000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L552" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="553">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.07E7</v>
+        <v>1.05E7</v>
       </c>
     </row>
     <row r="559">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="C559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="D559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="E559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="F559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="G559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="H559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="I559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="J559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="K559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="L559" t="n">
-        <v>8100000.0</v>
+        <v>8400000.0</v>
       </c>
     </row>
     <row r="560">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7000000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="576">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L576" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="C577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="D577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="E577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="F577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="G577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="H577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="I577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="J577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="K577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="L577" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
     </row>
     <row r="578">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="C583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="D583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="E583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="F583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="G583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="H583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="I583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="J583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="K583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="L583" t="n">
-        <v>8800000.0</v>
+        <v>9300000.0</v>
       </c>
     </row>
     <row r="584">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.14E7</v>
+        <v>1.16E7</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="C585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="D585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="E585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="F585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="G585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="H585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="I585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="J585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="K585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
       <c r="L585" t="n">
-        <v>1.04E7</v>
+        <v>9800000.0</v>
       </c>
     </row>
     <row r="586">
@@ -22675,37 +22675,37 @@
         <v>594.0</v>
       </c>
       <c r="B595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L595" t="n">
-        <v>6900000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="596">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="600">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.13E7</v>
+        <v>1.12E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6500000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6800000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23397,37 +23397,37 @@
         <v>613.0</v>
       </c>
       <c r="B614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L614" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="615">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L616" t="n">
-        <v>6000000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6500000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="618">
